--- a/data/regression_name_list90.xlsx
+++ b/data/regression_name_list90.xlsx
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
